--- a/modules/workload/template.xlsx
+++ b/modules/workload/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Осень" sheetId="1" r:id="rId1"/>
@@ -338,13 +338,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <strike/>
@@ -382,6 +376,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -409,6 +416,70 @@
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -1997,25 +2068,25 @@
     <mergeCell ref="A3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:N54">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>OR(ISBLANK($E5),ISBLANK($F5),OR($F5&lt;J$4,$E5&gt;EDATE(J$4,1)))</formula>
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>OR(ISBLANK($E5),ISBLANK($F5),OR($F5&lt;J$4,$E5&gt;=EDATE(J$4,1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:N54">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>$A5="совмещение"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>$A5="почасовая"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:N54">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>AND(TODAY()&gt;=J$4,TODAY()&lt;EDATE(J$4,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:F54">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>AND(NOT(ISBLANK($B5)),NOT(ISBLANK($H5)),$H5&lt;=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3332,24 +3403,24 @@
   </mergeCells>
   <conditionalFormatting sqref="J5:N54">
     <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
-      <formula>OR(ISBLANK($E5),ISBLANK($F5),OR($F5&lt;J$4,$E5&gt;EDATE(J$4,1)))</formula>
+      <formula>OR(ISBLANK($E5),ISBLANK($F5),OR($F5&lt;J$4,$E5&gt;=EDATE(J$4,1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:N54">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$A5="совмещение"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A5="почасовая"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:N54">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND(TODAY()&gt;=J$4,TODAY()&lt;EDATE(J$4,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:F54">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>AND(NOT(ISBLANK($B5)),NOT(ISBLANK($H5)),$H5&lt;=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3370,7 +3441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
